--- a/data/trans_camb/P22_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P22_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.848887779108202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.022461643310041</v>
+        <v>-2.02246164331004</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2951526511192092</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.336650456497625</v>
+        <v>-4.324571683443715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.237557587847933</v>
+        <v>-4.352306505820544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.700227261473217</v>
+        <v>-3.472592854220279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.417497987435128</v>
+        <v>-1.40052172063784</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.073540874879518</v>
+        <v>-2.103485855443147</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.366238680816245</v>
+        <v>-1.409653370655969</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.306479693562784</v>
+        <v>-2.347878734796465</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.770365750417665</v>
+        <v>-2.709329668833358</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.954024229800942</v>
+        <v>-1.950348139739005</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.65332451410301</v>
+        <v>-1.663288986299402</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.591156460159215</v>
+        <v>-1.483262472934456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.527278964029689</v>
+        <v>-0.4592117851714188</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8138130129765487</v>
+        <v>0.8234483905933806</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06894516755876144</v>
+        <v>-0.04500817323158896</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7413237025682797</v>
+        <v>0.8085487027809177</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.6070368112726924</v>
+        <v>-0.5902085591296374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.07971308152868</v>
+        <v>-1.070392648256709</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.1297007762867355</v>
+        <v>-0.1822550429893416</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.7714670770869195</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5476742832507147</v>
+        <v>-0.5476742832507145</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.142719138178945</v>
@@ -769,7 +769,7 @@
         <v>-0.6677796727157623</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3726531224895958</v>
+        <v>-0.3726531224895959</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9106961096888527</v>
+        <v>-0.904648623811086</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9160425165965044</v>
+        <v>-0.9223784694565001</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8009477714804574</v>
+        <v>-0.7733134669761537</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5343417206876369</v>
+        <v>-0.5506002555904048</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8006529018976531</v>
+        <v>-0.8141015628623506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5247234208004</v>
+        <v>-0.5344134397928149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7044947278003135</v>
+        <v>-0.7042263671039503</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8157888275725785</v>
+        <v>-0.8193505077868636</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5852453967053758</v>
+        <v>-0.5975939763127921</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.5276394753193184</v>
+        <v>-0.538710205864172</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4537173336680569</v>
+        <v>-0.4857083531004197</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1131839710170997</v>
+        <v>-0.1351316702153669</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5126473574855438</v>
+        <v>0.5910062165147223</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1439501231735638</v>
+        <v>0.0347602702205151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5057047212088557</v>
+        <v>0.5732134513154895</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2595074210253421</v>
+        <v>-0.2489868545570494</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4095302762763717</v>
+        <v>-0.4226771225232695</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.02160448953660796</v>
+        <v>-0.06560436963607975</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-2.747072386682782</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.314507644147854</v>
+        <v>2.314507644147855</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.511176293836275</v>
+        <v>-2.632475220544957</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.751883078119212</v>
+        <v>-4.793161904441542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2781008078394594</v>
+        <v>-0.1528105655572797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.48552037278949</v>
+        <v>-2.557859089945731</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.639838938098676</v>
+        <v>-3.574430160774948</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.461858394790967</v>
+        <v>1.405308425282892</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.19360734157189</v>
+        <v>-2.117825077213163</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.693406984548671</v>
+        <v>-3.649060037042658</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.011634959646775</v>
+        <v>1.223994969388601</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4316496688338279</v>
+        <v>0.576043961144995</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.934417337044519</v>
+        <v>-1.928113989932329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.358834576204686</v>
+        <v>3.392651425201608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4260636347208874</v>
+        <v>0.4587176740522316</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.8641402616846896</v>
+        <v>-0.900761745036352</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.601252700380084</v>
+        <v>4.501629194700818</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06251681086889828</v>
+        <v>0.002043005217579979</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.741163753915216</v>
+        <v>-1.738156983220407</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.472063094845503</v>
+        <v>3.57909763203036</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.4821657323983412</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4062420338073808</v>
+        <v>0.406242033807381</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3577080753498367</v>
+        <v>-0.3765719301923889</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6763483215885948</v>
+        <v>-0.6801215739016103</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0431349254417003</v>
+        <v>-0.02351442655853813</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4033682713703577</v>
+        <v>-0.4154018618298674</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5848614533582307</v>
+        <v>-0.58071342254037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2299504597271805</v>
+        <v>0.1995068453766111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3424824188629292</v>
+        <v>-0.3387240594086855</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5897705189805756</v>
+        <v>-0.5833932257000495</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1599302027423273</v>
+        <v>0.1916813983640738</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.08222540396550315</v>
+        <v>0.1136336793441713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3695082460473867</v>
+        <v>-0.3575013128458557</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6411678640147016</v>
+        <v>0.6478908934510172</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1038003985232773</v>
+        <v>0.1073794506083646</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1806543862175934</v>
+        <v>-0.1929256724251511</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.031253740716229</v>
+        <v>0.9826239373122312</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01828988070012728</v>
+        <v>-0.0006938132236518824</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3364043014752972</v>
+        <v>-0.3416937964329072</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6787830323273257</v>
+        <v>0.7081147252651263</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.144869594259831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.23426455262239</v>
+        <v>9.234264552622387</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.20238193247457</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.666454547394348</v>
+        <v>-7.430089275865819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.183839929264694</v>
+        <v>-6.958457253038115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.745684538743168</v>
+        <v>4.470429461153262</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.779579894930275</v>
+        <v>-6.569239819337609</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.870347776712104</v>
+        <v>-3.500264968253243</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.954702000355487</v>
+        <v>8.507131496591905</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.838712437968327</v>
+        <v>-5.784623069292219</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.990626192278486</v>
+        <v>-3.972717521924062</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.995249814349993</v>
+        <v>7.930875542165645</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9186670852933702</v>
+        <v>0.5350937676987731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7110351818730483</v>
+        <v>0.4886179481311723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.14358545102944</v>
+        <v>13.61264289453127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.155258481824968</v>
+        <v>2.18637708299953</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.162528360427739</v>
+        <v>5.655769519612439</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.01108317786603</v>
+        <v>17.02866213438923</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7535039421496659</v>
+        <v>0.5830158537765959</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.182806031476443</v>
+        <v>2.234209049071471</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.15267259455818</v>
+        <v>14.22852264939108</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2309931913670762</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.678264129880445</v>
+        <v>0.6782641298804448</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1632375241800517</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4861385244941022</v>
+        <v>-0.4865079524855896</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4547536746820132</v>
+        <v>-0.4485791336103532</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3015947057742995</v>
+        <v>0.2745566434729844</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4277701583030732</v>
+        <v>-0.4212608362798103</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2323381050422137</v>
+        <v>-0.2229745203117049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4905292270879095</v>
+        <v>0.5392380754336903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.38143464865627</v>
+        <v>-0.3994849342406788</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.267807246489737</v>
+        <v>-0.2614502849805867</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5206056120675889</v>
+        <v>0.5187409004305503</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07804732041124011</v>
+        <v>0.05660938013566866</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06277350736171818</v>
+        <v>0.04545356003946018</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.237352446028503</v>
+        <v>1.203489044319221</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1849994911023156</v>
+        <v>0.1950917845252492</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4769642028194972</v>
+        <v>0.5121872836959308</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.585867037784557</v>
+        <v>1.575807331089027</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07004081331928272</v>
+        <v>0.02723093653326139</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1802443043183889</v>
+        <v>0.188613285146114</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.184076656454655</v>
+        <v>1.187762244036987</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.997282024902202</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.193456829794065</v>
+        <v>3.193456829794067</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.9927780994533522</v>
@@ -1297,7 +1297,7 @@
         <v>-0.9277087574607199</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.228519788877832</v>
+        <v>5.228519788877834</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.493011566883157</v>
@@ -1306,7 +1306,7 @@
         <v>-1.943756180254708</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.231307320682463</v>
+        <v>4.231307320682461</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.103666874657096</v>
+        <v>-3.208838560591671</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.170676498373462</v>
+        <v>-3.99031578631596</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.776988049199397</v>
+        <v>1.756179380976505</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.98477221629426</v>
+        <v>-2.086988216887423</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.982873957778666</v>
+        <v>-1.95878066435775</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.042015806671259</v>
+        <v>4.035425827174051</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.360119875976308</v>
+        <v>-2.319214025368317</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.748513735664673</v>
+        <v>-2.767861499092792</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.37170528823148</v>
+        <v>3.352512879065408</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.8604633703120302</v>
+        <v>-0.8276410909632954</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.956163084239599</v>
+        <v>-1.85573299872582</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.567021267862299</v>
+        <v>4.712414330345963</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03183776912405965</v>
+        <v>0.02720808291786999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09018888510272598</v>
+        <v>0.1399470163434058</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.406577767547393</v>
+        <v>6.466743931197334</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.7110312411812855</v>
+        <v>-0.5968635187648913</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.221769100517766</v>
+        <v>-1.178545398457359</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.244054374872686</v>
+        <v>5.254136390273398</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4545617862197551</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4843132640526984</v>
+        <v>0.4843132640526986</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1909735952806894</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1784566731308917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.005772813308466</v>
+        <v>1.005772813308467</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2537015392235663</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3302947852141669</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7190092856588673</v>
+        <v>0.7190092856588671</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4311449504150835</v>
+        <v>-0.4429147986876975</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5700701616296487</v>
+        <v>-0.5623596457077678</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2429271920532893</v>
+        <v>0.2444051430789115</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3509212728320791</v>
+        <v>-0.358772138761936</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3485766547245782</v>
+        <v>-0.3403379310462492</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7083034923696574</v>
+        <v>0.6960284484394297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3697691632967778</v>
+        <v>-0.3638094287667303</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4336939508898993</v>
+        <v>-0.4328559209453508</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5341513010521879</v>
+        <v>0.5331602579260927</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1401740958643018</v>
+        <v>-0.1383520307514113</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3168880383276524</v>
+        <v>-0.3074380912749511</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7583074374406963</v>
+        <v>0.7878652560947548</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.002797287855537469</v>
+        <v>0.007037487340673573</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02376649513814524</v>
+        <v>0.03361037280672372</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.395161845975263</v>
+        <v>1.384086119194362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1289293974768142</v>
+        <v>-0.1066294119367049</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.224616954646751</v>
+        <v>-0.2150338530994942</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.977093027303123</v>
+        <v>0.976458149940978</v>
       </c>
     </row>
     <row r="28">
